--- a/src/pages/data/data_paes_2024_py.xlsx
+++ b/src/pages/data/data_paes_2024_py.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\ensayos_paes_2024\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\Proyect_multi_page\src\pages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF034C81-BD50-4241-B6EB-55CAC6CFA47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D6952-35C1-41A7-9A4B-2A89CDB41DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>MAT-02</t>
+  </si>
+  <si>
+    <t>ENSAYO-03</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,9 +519,10 @@
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,8 +541,11 @@
       <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -557,8 +564,11 @@
       <c r="F2" s="2">
         <v>599.51428571428573</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>572.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -577,8 +587,11 @@
       <c r="F3" s="2">
         <v>472</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>469.47826086956519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -597,8 +610,11 @@
       <c r="F4" s="2">
         <v>454.29032258064518</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>397.73333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -617,8 +633,11 @@
       <c r="F5" s="2">
         <v>485.125</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>462.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -637,8 +656,11 @@
       <c r="F6" s="2">
         <v>457.38461538461536</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>486.53846153846155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -657,8 +679,11 @@
       <c r="F7" s="2">
         <v>506.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>535.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -677,8 +702,11 @@
       <c r="F8" s="2">
         <v>454.45714285714286</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>425.08571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -697,8 +725,11 @@
       <c r="F9" s="2">
         <v>514.64285714285711</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>441.86666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -717,8 +748,11 @@
       <c r="F10" s="2">
         <v>563.88461538461536</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>542.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -737,8 +771,11 @@
       <c r="F11" s="2">
         <v>590.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>578.22727272727275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -757,8 +794,11 @@
       <c r="F12" s="2">
         <v>541.91999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>549.77777777777783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -777,8 +817,11 @@
       <c r="F13" s="2">
         <v>509.8235294117647</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>496.78260869565219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -797,8 +840,11 @@
       <c r="F14" s="2">
         <v>435.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>451.38888888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -817,8 +863,11 @@
       <c r="F15" s="2">
         <v>513.94117647058829</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>460.66666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -837,8 +886,11 @@
       <c r="F16" s="2">
         <v>485.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>493.82758620689657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -857,8 +909,11 @@
       <c r="F17" s="2">
         <v>505</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>483.66666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -877,8 +932,11 @@
       <c r="F18" s="2">
         <v>473.73076923076923</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>509.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -897,8 +955,11 @@
       <c r="F19" s="2">
         <v>550.66666666666663</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>496.95454545454544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -917,8 +978,11 @@
       <c r="F20" s="2">
         <v>499.63414634146341</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>537.2285714285714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -937,8 +1001,11 @@
       <c r="F21" s="2">
         <v>437.28125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -957,8 +1024,11 @@
       <c r="F22" s="2">
         <v>477.72413793103448</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>491.48387096774195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -977,8 +1047,11 @@
       <c r="F23" s="2">
         <v>426.23076923076923</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>456.41666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -997,8 +1070,11 @@
       <c r="F24" s="2">
         <v>444.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>507.8125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1017,8 +1093,11 @@
       <c r="F25" s="2">
         <v>433.5625</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>451.32258064516128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1037,8 +1116,11 @@
       <c r="F26" s="2">
         <v>442.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>457.37142857142857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1057,8 +1139,11 @@
       <c r="F27" s="2">
         <v>449.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>493.78571428571428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1077,8 +1162,11 @@
       <c r="F28" s="2">
         <v>463.26086956521738</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>488.03571428571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1097,8 +1185,11 @@
       <c r="F29" s="2">
         <v>511.79310344827587</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2">
+        <v>579.03846153846155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1117,8 +1208,11 @@
       <c r="F30" s="2">
         <v>468.62962962962962</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>486.85714285714283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1137,8 +1231,11 @@
       <c r="F31" s="2">
         <v>504.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2">
+        <v>529.33333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1157,8 +1254,11 @@
       <c r="F32" s="2">
         <v>451.44444444444446</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2">
+        <v>491.63636363636363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1177,8 +1277,11 @@
       <c r="F33" s="2">
         <v>447.61904761904759</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2">
+        <v>478.33333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1197,8 +1300,11 @@
       <c r="F34" s="2">
         <v>476.3125</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2">
+        <v>476.54838709677421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1217,8 +1323,11 @@
       <c r="F35" s="2">
         <v>435</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2">
+        <v>428.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1237,8 +1346,11 @@
       <c r="F36" s="2">
         <v>455.04347826086956</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2">
+        <v>513.04347826086962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1257,8 +1369,11 @@
       <c r="F37" s="2">
         <v>440.88888888888891</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2">
+        <v>500.33333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1277,8 +1392,11 @@
       <c r="F38" s="2">
         <v>573.16666666666663</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2">
+        <v>484.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1297,8 +1415,11 @@
       <c r="F39" s="2">
         <v>502.71428571428572</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2">
+        <v>412.88888888888891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1317,8 +1438,11 @@
       <c r="F40" s="2">
         <v>574.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2">
+        <v>335.06666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1337,8 +1461,11 @@
       <c r="F41" s="2">
         <v>406.44444444444446</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1357,8 +1484,11 @@
       <c r="F42" s="2">
         <v>473.94736842105266</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2">
+        <v>387.88235294117646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1377,8 +1507,11 @@
       <c r="F43" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2">
+        <v>370.33333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1397,8 +1530,11 @@
       <c r="F44" s="2">
         <v>354.91666666666669</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2">
+        <v>366.28571428571428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1417,8 +1553,11 @@
       <c r="F45" s="2">
         <v>549</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2">
+        <v>357.72727272727275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1437,8 +1576,11 @@
       <c r="F46" s="2">
         <v>552.76923076923072</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
+        <v>411.46666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1457,8 +1599,11 @@
       <c r="F47" s="2">
         <v>460.11111111111109</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1477,8 +1622,11 @@
       <c r="F48" s="2">
         <v>498.58823529411762</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2">
+        <v>385.23076923076923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1497,8 +1645,11 @@
       <c r="F49" s="2">
         <v>392.1875</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2">
+        <v>366.58823529411762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1517,8 +1668,11 @@
       <c r="F50" s="2">
         <v>462.92857142857144</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2">
+        <v>345.11111111111109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1537,8 +1691,11 @@
       <c r="F51" s="2">
         <v>521.19047619047615</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2">
+        <v>381.73684210526318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1557,8 +1714,11 @@
       <c r="F52" s="2">
         <v>364.90322580645159</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2">
+        <v>353.47619047619048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1577,8 +1737,11 @@
       <c r="F53" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1597,8 +1760,11 @@
       <c r="F54" s="2">
         <v>378.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2">
+        <v>421.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1617,8 +1783,11 @@
       <c r="F55" s="2">
         <v>442</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1637,8 +1806,11 @@
       <c r="F56" s="2">
         <v>465.58620689655174</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2">
+        <v>479.17241379310343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1657,8 +1829,11 @@
       <c r="F57" s="2">
         <v>401.56</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2">
+        <v>421.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1677,8 +1852,11 @@
       <c r="F58" s="2">
         <v>435.875</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2">
+        <v>365.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1697,8 +1875,11 @@
       <c r="F59" s="2">
         <v>435.47058823529414</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2">
+        <v>444.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1715,8 +1896,9 @@
         <v>29</v>
       </c>
       <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1735,8 +1917,11 @@
       <c r="F61" s="2">
         <v>446.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2">
+        <v>424.81481481481484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1755,8 +1940,11 @@
       <c r="F62" s="2">
         <v>406.84</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2">
+        <v>426.17857142857144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1775,8 +1963,11 @@
       <c r="F63" s="2">
         <v>529.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2">
+        <v>416.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1795,8 +1986,11 @@
       <c r="F64" s="2">
         <v>503</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2">
+        <v>487.64285714285717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1815,8 +2009,11 @@
       <c r="F65" s="2">
         <v>479.11111111111109</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2">
+        <v>474.10526315789474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1835,8 +2032,11 @@
       <c r="F66" s="2">
         <v>415.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2">
+        <v>396.45454545454544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1855,8 +2055,11 @@
       <c r="F67" s="2">
         <v>481</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1875,8 +2078,11 @@
       <c r="F68" s="2">
         <v>430.42857142857144</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2">
+        <v>381.57142857142856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1893,8 +2099,9 @@
         <v>29</v>
       </c>
       <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1913,8 +2120,11 @@
       <c r="F70" s="2">
         <v>413</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1933,8 +2143,11 @@
       <c r="F71" s="2">
         <v>406</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2">
+        <v>445.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1953,8 +2166,11 @@
       <c r="F72" s="2">
         <v>397.63636363636363</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2">
+        <v>435.66666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1973,8 +2189,11 @@
       <c r="F73" s="2">
         <v>418.05882352941177</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2">
+        <v>413.70588235294116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1993,8 +2212,11 @@
       <c r="F74" s="2">
         <v>442.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2">
+        <v>464.54545454545456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2013,8 +2235,11 @@
       <c r="F75" s="2">
         <v>564</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2033,8 +2258,11 @@
       <c r="F76" s="2">
         <v>472.94444444444446</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="2">
+        <v>487.70588235294116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2053,8 +2281,11 @@
       <c r="F77" s="2">
         <v>493.44444444444446</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="2">
+        <v>484.41666666666669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2071,8 +2302,9 @@
         <v>548</v>
       </c>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2091,8 +2323,11 @@
       <c r="F79" s="2">
         <v>589</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2111,8 +2346,11 @@
       <c r="F80" s="2">
         <v>467.46153846153845</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2">
+        <v>455.93333333333334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2131,8 +2369,9 @@
       <c r="F81" s="2">
         <v>497</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2151,8 +2390,11 @@
       <c r="F82" s="2">
         <v>509.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2">
+        <v>542.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2169,8 +2411,11 @@
       <c r="F83" s="2">
         <v>489.44444444444446</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="2">
+        <v>582.28571428571433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2187,8 +2432,9 @@
       <c r="F84" s="2">
         <v>424.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2205,8 +2451,9 @@
       <c r="F85" s="2">
         <v>417.66666666666669</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2223,8 +2470,11 @@
       <c r="F86" s="2">
         <v>445</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2">
+        <v>551.66666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2241,8 +2491,11 @@
       <c r="F87" s="2">
         <v>463</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2259,8 +2512,9 @@
       <c r="F88" s="2">
         <v>425</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2277,8 +2531,11 @@
       <c r="F89" s="2">
         <v>420.33333333333331</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2294,6 +2551,9 @@
       <c r="E90" s="3"/>
       <c r="F90" s="2">
         <v>398</v>
+      </c>
+      <c r="G90" s="2">
+        <v>473.5</v>
       </c>
     </row>
   </sheetData>
